--- a/biology/Zoologie/Chevalier_solitaire/Chevalier_solitaire.xlsx
+++ b/biology/Zoologie/Chevalier_solitaire/Chevalier_solitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tringa solitaria
-Le Chevalier solitaire (Tringa solitaria) est une espèce d'oiseaux limicoles appartenant à la famille des Scolopacidae[1].
+Le Chevalier solitaire (Tringa solitaria) est une espèce d'oiseaux limicoles appartenant à la famille des Scolopacidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des sous-espèces suivantes :
 Tringa solitaria cinnamomea (Brewster) 1890 ;
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,7 +586,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chevalier solitaire, sur la Rivière des Outaouais au Québec
@@ -600,43 +618,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alimentation
-Reproduction
-Vol et locomotion
-Vocalisation et sons</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chevalier_solitaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chevalier_solitaire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Écologie et préservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
